--- a/S2/Bases de données - modélisation & langage SQL/DD.xlsx
+++ b/S2/Bases de données - modélisation & langage SQL/DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jey\Desktop\DUT MMI\Cours DUT MMI\S2\Bases de données - modélisation &amp; langage SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBB0BE8-E19A-4976-B790-9272B0796E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F8D050-BC9D-41C9-A38F-59DFE98CE89B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Nom</t>
   </si>
@@ -71,9 +71,6 @@
     <t>clé_rib</t>
   </si>
   <si>
-    <t>domicilisation</t>
-  </si>
-  <si>
     <t>nom_client</t>
   </si>
   <si>
@@ -117,6 +114,18 @@
   </si>
   <si>
     <t>000000h031</t>
+  </si>
+  <si>
+    <t>domiciliation</t>
+  </si>
+  <si>
+    <t>Montant du débit</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>Date d'ouverture du compte</t>
   </si>
 </sst>
 </file>
@@ -193,7 +202,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -202,7 +211,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -220,15 +229,64 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>275369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB5532E-3453-4CBB-BA61-C2F3A175FF34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="47625"/>
+          <a:ext cx="6847619" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Exemple(s) de valeur(s)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="                                    Domaine_x000a_Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Règles" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Exemple(s) de valeur(s)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="                                    Domaine_x000a_Type" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Règles" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,13 +619,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
   </cols>
@@ -611,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,13 +683,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>406</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,63 +711,88 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" copies="16" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>